--- a/Github.xlsx
+++ b/Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RANA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A83B24-47DC-477F-B98E-CDB764D97CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05118386-B788-4A2A-BB7D-824AB7F7CC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2A1E9C7F-5BFE-40AB-876E-864C287F1CD4}"/>
   </bookViews>
@@ -569,398 +569,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF8F6C-B422-40A3-B9F8-184C4CD48799}">
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B2" s="4">
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>86</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>13</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4">
-        <v>2</v>
-      </c>
-      <c r="W2" s="4">
-        <v>5</v>
-      </c>
-      <c r="X2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>61</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>23</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B3" s="4">
-        <v>18</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>45</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>2</v>
-      </c>
-      <c r="T3" s="4">
-        <v>14</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1001,10 +775,16 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1045,10 +825,16 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1089,10 +875,16 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1133,10 +925,16 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1177,10 +975,16 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1221,10 +1025,16 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1265,10 +1075,16 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1309,10 +1125,16 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1353,10 +1175,16 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1397,10 +1225,16 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1441,10 +1275,16 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1485,10 +1325,16 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1529,10 +1375,16 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1573,10 +1425,16 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1617,10 +1475,16 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1661,10 +1525,16 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1705,10 +1575,16 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1749,10 +1625,16 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1793,10 +1675,16 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1837,10 +1725,16 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1881,10 +1775,16 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1925,10 +1825,16 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C26" s="4">
+        <v>46</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1969,10 +1875,16 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2013,10 +1925,16 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2057,10 +1975,16 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2101,10 +2025,16 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2145,10 +2075,16 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2189,10 +2125,16 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2233,10 +2175,16 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2277,10 +2225,16 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2321,10 +2275,16 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2365,10 +2325,16 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2409,10 +2375,16 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2453,10 +2425,16 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>23</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2497,10 +2475,16 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2541,10 +2525,16 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2585,10 +2575,16 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="1:42" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2629,10 +2625,16 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+    <row r="42" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
